--- a/US/data/BTS/TRPT/CRTM_historical - Monthly.xlsx
+++ b/US/data/BTS/TRPT/CRTM_historical - Monthly.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NJ7"/>
+  <dimension ref="A1:NM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,6 +2248,21 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3326,7 +3341,7 @@
         <v>1667.679</v>
       </c>
       <c r="MT2" t="n">
-        <v>1614.284</v>
+        <v>1614.292</v>
       </c>
       <c r="MU2" t="n">
         <v>1638.443</v>
@@ -3341,10 +3356,10 @@
         <v>1881.067</v>
       </c>
       <c r="MY2" t="n">
-        <v>1606.753</v>
+        <v>1605.293</v>
       </c>
       <c r="MZ2" t="n">
-        <v>1329.102</v>
+        <v>1328.993</v>
       </c>
       <c r="NA2" t="n">
         <v>1722.973</v>
@@ -3374,7 +3389,16 @@
         <v>1727.082</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1958.74</v>
+        <v>1960.397</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>1589.905</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>1459.101</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>1751.496</v>
       </c>
     </row>
     <row r="3">
@@ -4465,7 +4489,7 @@
         <v>564.612</v>
       </c>
       <c r="MY3" t="n">
-        <v>587.746</v>
+        <v>565.1079999999999</v>
       </c>
       <c r="MZ3" t="n">
         <v>564.275</v>
@@ -4499,6 +4523,15 @@
       </c>
       <c r="NJ3" t="n">
         <v>687.809</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>608.077</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>669.89</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>796.653</v>
       </c>
     </row>
     <row r="4">
@@ -5589,7 +5622,7 @@
         <v>124.304</v>
       </c>
       <c r="MY4" t="n">
-        <v>137.915</v>
+        <v>123.032</v>
       </c>
       <c r="MZ4" t="n">
         <v>127.86</v>
@@ -5623,6 +5656,15 @@
       </c>
       <c r="NJ4" t="n">
         <v>155.231</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>133.117</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>140.071</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>150.671</v>
       </c>
     </row>
     <row r="5">
@@ -6713,7 +6755,7 @@
         <v>1015.133</v>
       </c>
       <c r="MY5" t="n">
-        <v>923.327</v>
+        <v>947.415</v>
       </c>
       <c r="MZ5" t="n">
         <v>779.704</v>
@@ -6747,6 +6789,15 @@
       </c>
       <c r="NJ5" t="n">
         <v>947.417</v>
+      </c>
+      <c r="NK5" t="n">
+        <v>833.347</v>
+      </c>
+      <c r="NL5" t="n">
+        <v>713.404</v>
+      </c>
+      <c r="NM5" t="n">
+        <v>909.778</v>
       </c>
     </row>
     <row r="6">
@@ -7837,40 +7888,49 @@
         <v>3647.331</v>
       </c>
       <c r="MY6" t="n">
-        <v>3628.861</v>
+        <v>3628.893</v>
       </c>
       <c r="MZ6" t="n">
-        <v>3391.886</v>
+        <v>3391.955</v>
       </c>
       <c r="NA6" t="n">
-        <v>3846.97</v>
+        <v>3850.862</v>
       </c>
       <c r="NB6" t="n">
-        <v>4036.392</v>
+        <v>4037.925</v>
       </c>
       <c r="NC6" t="n">
-        <v>4138.903</v>
+        <v>4145.403</v>
       </c>
       <c r="ND6" t="n">
-        <v>4051.162</v>
+        <v>4052.335</v>
       </c>
       <c r="NE6" t="n">
-        <v>4121.191</v>
+        <v>4126.835</v>
       </c>
       <c r="NF6" t="n">
-        <v>4215.407</v>
+        <v>4221.008</v>
       </c>
       <c r="NG6" t="n">
-        <v>4114.244</v>
+        <v>4123.774</v>
       </c>
       <c r="NH6" t="n">
-        <v>4432.605</v>
+        <v>4444.334</v>
       </c>
       <c r="NI6" t="n">
-        <v>4278.257</v>
+        <v>4291.118</v>
       </c>
       <c r="NJ6" t="n">
-        <v>4283.52</v>
+        <v>4395.379</v>
+      </c>
+      <c r="NK6" t="n">
+        <v>3772.097</v>
+      </c>
+      <c r="NL6" t="n">
+        <v>3544.386</v>
+      </c>
+      <c r="NM6" t="n">
+        <v>4173.877</v>
       </c>
     </row>
     <row r="7">
@@ -8950,7 +9010,7 @@
         <v>6447.115</v>
       </c>
       <c r="MT7" t="n">
-        <v>6474.41</v>
+        <v>6474.418</v>
       </c>
       <c r="MU7" t="n">
         <v>6645.737</v>
@@ -8965,40 +9025,49 @@
         <v>7232.447</v>
       </c>
       <c r="MY7" t="n">
-        <v>6884.602</v>
+        <v>6869.741</v>
       </c>
       <c r="MZ7" t="n">
-        <v>6192.828</v>
+        <v>6192.787</v>
       </c>
       <c r="NA7" t="n">
-        <v>7483.288</v>
+        <v>7487.179</v>
       </c>
       <c r="NB7" t="n">
-        <v>7575.59</v>
+        <v>7577.122</v>
       </c>
       <c r="NC7" t="n">
-        <v>7646.551</v>
+        <v>7653.051</v>
       </c>
       <c r="ND7" t="n">
-        <v>7510.142</v>
+        <v>7511.315</v>
       </c>
       <c r="NE7" t="n">
-        <v>7587.302</v>
+        <v>7592.947</v>
       </c>
       <c r="NF7" t="n">
-        <v>7570.123</v>
+        <v>7575.724</v>
       </c>
       <c r="NG7" t="n">
-        <v>7482.682</v>
+        <v>7492.212</v>
       </c>
       <c r="NH7" t="n">
-        <v>8022.949</v>
+        <v>8034.677</v>
       </c>
       <c r="NI7" t="n">
-        <v>7769.053</v>
+        <v>7781.914</v>
       </c>
       <c r="NJ7" t="n">
-        <v>8032.716</v>
+        <v>8146.232</v>
+      </c>
+      <c r="NK7" t="n">
+        <v>6936.543</v>
+      </c>
+      <c r="NL7" t="n">
+        <v>6526.852</v>
+      </c>
+      <c r="NM7" t="n">
+        <v>7782.474</v>
       </c>
     </row>
   </sheetData>
